--- a/app/templates/report/depositreturns.xlsx
+++ b/app/templates/report/depositreturns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641005FE-31FC-4E4F-B6B3-50B7A6B60810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9260E22B-3567-413F-87FC-A8B0D7E9B03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Devoluciones" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Devoluciones!$A$2:$N$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Devoluciones!$A$2:$O$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Reserva</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Hoy</t>
+  </si>
+  <si>
+    <t>Retención temporal</t>
   </si>
 </sst>
 </file>
@@ -598,7 +601,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -606,32 +609,29 @@
   <cols>
     <col min="1" max="1" width="9.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="12.140625" style="1" customWidth="1"/>
-    <col min="9" max="14" width="11.5703125" style="7" customWidth="1"/>
-    <col min="15" max="16384" width="14.28515625" style="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="12.140625" style="1" customWidth="1"/>
+    <col min="10" max="15" width="11.5703125" style="7" customWidth="1"/>
+    <col min="16" max="16384" width="14.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="11">
-        <f>SUBTOTAL(9,I3:I9999)</f>
+      <c r="I1" s="3"/>
+      <c r="J1" s="11">
+        <f>SUBTOTAL(9,J3:J9999)</f>
         <v>0</v>
       </c>
-      <c r="J1" s="11">
-        <f t="shared" ref="J1:N1" si="0">SUBTOTAL(9,J3:J9999)</f>
-        <v>0</v>
-      </c>
       <c r="K1" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K1:O1" si="0">SUBTOTAL(9,K3:K9999)</f>
         <v>0</v>
       </c>
       <c r="L1" s="11">
@@ -646,8 +646,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="O1" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -655,37 +659,36 @@
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="12" t="str">
-        <f>F3</f>
+      <c r="J2" s="12" t="str">
+        <f>G3</f>
         <v>date</v>
       </c>
-      <c r="J2" s="12" t="e">
-        <f>DATE(YEAR(I2), MONTH(I2)+1, DAY(I2))</f>
+      <c r="K2" s="12" t="e">
+        <f>DATE(YEAR(J2), MONTH(J2)+1, DAY(J2))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K2" s="12" t="e">
-        <f t="shared" ref="K2:N2" si="1">DATE(YEAR(J2), MONTH(J2)+1, DAY(J2))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="L2" s="12" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L2:O2" si="1">DATE(YEAR(K2), MONTH(K2)+1, DAY(K2))</f>
         <v>#VALUE!</v>
       </c>
       <c r="M2" s="12" t="e">
@@ -696,31 +699,36 @@
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
+      <c r="O2" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="9" t="s">
-        <v>2</v>
-      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="10"/>
+      <c r="I3" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:N3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:O3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
